--- a/web/excel/用户包裹62756.xlsx
+++ b/web/excel/用户包裹62756.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>包裹单号</t>
   </si>
@@ -38,43 +38,49 @@
     <t>重量</t>
   </si>
   <si>
-    <t>系统单号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">773196392645261 </t>
-  </si>
-  <si>
-    <t>微信用户</t>
-  </si>
-  <si>
-    <t>待入库</t>
-  </si>
-  <si>
-    <t>202212051038463480202045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78308951688847 </t>
-  </si>
-  <si>
-    <t>202212051042206155301947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777117589244234 </t>
-  </si>
-  <si>
-    <t>202212051042378857983120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9851885570754 </t>
-  </si>
-  <si>
-    <t>202212061104432971167039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78639518008396 </t>
-  </si>
-  <si>
-    <t>202212061106043001747645</t>
+    <t>唛头</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>总重量</t>
+  </si>
+  <si>
+    <t>总体积</t>
+  </si>
+  <si>
+    <t>体积重</t>
+  </si>
+  <si>
+    <t>货品</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ky4000298912000-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>已入库</t>
+  </si>
+  <si>
+    <t>2024-01-08 15:27:14</t>
+  </si>
+  <si>
+    <t>bt-xon</t>
   </si>
 </sst>
 </file>
@@ -419,7 +425,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +440,19 @@
     <col min="5" max="5" width="10" customWidth="true" style="2"/>
     <col min="6" max="6" width="30" customWidth="true" style="2"/>
     <col min="7" max="7" width="10" customWidth="true" style="2"/>
-    <col min="8" max="8" width="30" customWidth="true" style="2"/>
+    <col min="8" max="8" width="10" customWidth="true" style="2"/>
+    <col min="9" max="9" width="10" customWidth="true" style="2"/>
+    <col min="10" max="10" width="10" customWidth="true" style="2"/>
+    <col min="11" max="11" width="10" customWidth="true" style="2"/>
+    <col min="12" max="12" width="10" customWidth="true" style="2"/>
+    <col min="13" max="13" width="10" customWidth="true" style="2"/>
+    <col min="14" max="14" width="10" customWidth="true" style="2"/>
+    <col min="15" max="15" width="10" customWidth="true" style="2"/>
+    <col min="16" max="16" width="10" customWidth="true" style="2"/>
+    <col min="17" max="17" width="30" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,115 +477,79 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1985</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>66</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.0748</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12.474</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
